--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3511430.651390016</v>
+        <v>3505709.039422131</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8149915.112758832</v>
+        <v>8149915.112758834</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.3120708005645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>320.5360847970597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>163.2123634091013</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.264003285459112</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.596014652032486</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>43.63642686176252</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>32.85515447204204</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>324.8533966564055</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>78.40333552909871</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1426,10 +1426,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>4.576889691080814</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>222.8810041512596</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26.14194921924042</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26821836278967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>270.2458698364532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.7816847516326</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>104.0438938896184</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>216.5286766640849</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.2133719456947</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4912277621866</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>112.9416910403794</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.6263036617367</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>281.6692808021289</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>32.40030110570893</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>156.3460220671599</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2711023876006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>126.095523708391</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>44.98902468820739</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.7744035713887</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>74.81188663097703</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>531.1827808526078</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.486449955563</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2471.851782927626</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2471.851782927626</v>
+        <v>2258.25973745419</v>
       </c>
       <c r="V5" t="n">
-        <v>2140.788895584055</v>
+        <v>1927.196850110619</v>
       </c>
       <c r="W5" t="n">
-        <v>2140.788895584055</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="X5" t="n">
-        <v>1767.323137322976</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,16 +4649,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>437.5354894428046</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>437.5354894428046</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>437.5354894428046</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.521057189058</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D8" t="n">
-        <v>935.2553585823075</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E8" t="n">
-        <v>549.4671059840632</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.0282177315058</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>280.0282177315058</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.0282177315058</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5044,22 +5044,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3348.500285847604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3851.472756726941</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5132,13 +5132,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.6979017231758</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1861.88988796215</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1640.123272531676</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1351.02040565732</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V13" t="n">
-        <v>1096.335917451433</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.335917451433</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X13" t="n">
-        <v>868.3463665534156</v>
+        <v>875.5124077633956</v>
       </c>
       <c r="Y13" t="n">
-        <v>868.3463665534156</v>
+        <v>654.7198286198654</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1670.680157531993</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2649.230460361821</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4391.840681985868</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533.2127443498364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>533.2127443498364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>533.2127443498364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2127443498364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.643339221624</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X16" t="n">
-        <v>935.6537883236062</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.8612091800761</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,52 +5515,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M17" t="n">
-        <v>2016.310259422546</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>2996.062531649192</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3876.027181978647</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4270.801548335825</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>676.4156786811474</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C19" t="n">
-        <v>507.4794957532405</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D19" t="n">
-        <v>507.4794957532405</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>357.5566442331909</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>858.0641435113871</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>858.0641435113871</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y19" t="n">
-        <v>858.0641435113871</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839484</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074203</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972667</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>709.6864413838521</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.5433254731121</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5968,52 +5968,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1460.488316778686</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2439.038619608515</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667297</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.8526275526848</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>490.9164446247779</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6180,19 +6180,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.206478295169</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>1069.490643280942</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>841.5010923829245</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>841.5010923829245</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.613856788637</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="C28" t="n">
-        <v>245.6776738607301</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.725653781988</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.308483745028</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X28" t="n">
-        <v>805.3189328470103</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.5263537034801</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2383.057343890769</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3922.043334312404</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C31" t="n">
-        <v>3753.107151384497</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D31" t="n">
-        <v>3623.318032432793</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.4049388504</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4586.365838246547</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>4586.365838246547</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>4331.681350040661</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>4331.681350040661</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>4103.691799142644</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>4103.691799142644</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4302.335344088783</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3610.056707935234</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3610.056707935234</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3477.100845650651</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3329.187752068258</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989247</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.18224011489</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>4012.497751909003</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>4012.497751909003</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>4012.497751909003</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3791.705172765473</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6940,16 +6940,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3694.928538179045</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>3525.992355251138</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>3525.992355251138</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>3378.079261668744</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>3231.189314170834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4496.535381004074</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4207.432514129718</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>4207.432514129718</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>3922.918089077062</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3694.928538179045</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3694.928538179045</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7171,49 +7171,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M38" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3659.94506193744</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>3659.94506193744</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>3509.828422525105</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>3361.915328942711</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>3215.025381444801</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>3047.32254481952</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4466.454649746775</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>4177.351782872418</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V40" t="n">
-        <v>4177.351782872418</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W40" t="n">
-        <v>3887.934612835457</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X40" t="n">
-        <v>3659.94506193744</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y40" t="n">
-        <v>3659.94506193744</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3348.500285847604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
@@ -7508,16 +7508,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3551.938043311329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>3383.001860383422</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>3232.885220971086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>4688.221265177249</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>4471.785808220076</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>4471.785808220076</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>4182.368638183116</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>3954.379087285099</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>3733.586508141569</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7651,22 +7651,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2749.9835782646</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3629.948228594054</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4343.303316041</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188665</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320243</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3593.482049962152</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C46" t="n">
-        <v>3424.545867034245</v>
+        <v>222.930250315456</v>
       </c>
       <c r="D46" t="n">
-        <v>3424.545867034245</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>3276.632773451852</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>3276.632773451852</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>3108.929936826571</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>2962.712750044429</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>4586.365838246546</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>4586.365838246546</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>4331.68135004066</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>4042.264180003699</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>3814.274629105682</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>3593.482049962152</v>
+        <v>391.866433243363</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>161.0524397463282</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>283.31560276855</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>13.98823883546996</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9664098701129</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>189.7998007892639</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>395.146024679809</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>317.5146261106137</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>46.30618790178835</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>170.1140909277309</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>201.9664098701116</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M38" t="n">
-        <v>354.4836849406613</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>14.45386895940612</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.01588120402241</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1921356403611</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.828651237777564</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>119.2790988036908</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.7575898962386</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>16.27712850013779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.80296860046221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>69.99432167250609</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.61860823624261</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>18.96245366221362</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>20.1242452560258</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>105.6429623117154</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>16.98916935647568</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>4.853717534462078</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>112.3547138086118</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>129.865816138453</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>71.94073581801223</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>22.51994930982134</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>51.3633957216307</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692394.6160973812</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.21639657</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="F2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="G2" t="n">
         <v>714747.2163965706</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>714747.2163965702</v>
+      </c>
+      <c r="I2" t="n">
         <v>714747.2163965703</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>714747.2163965709</v>
+      </c>
+      <c r="K2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="N2" t="n">
+        <v>714747.2163965702</v>
+      </c>
+      <c r="O2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="P2" t="n">
         <v>714747.2163965701</v>
-      </c>
-      <c r="I2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965702</v>
-      </c>
-      <c r="L2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="N2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="O2" t="n">
-        <v>714747.2163965703</v>
-      </c>
-      <c r="P2" t="n">
-        <v>714747.2163965704</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26453,13 +26453,13 @@
         <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572271</v>
+        <v>-117238.0512572272</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573175</v>
+        <v>472729.8279573171</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573175</v>
+        <v>472729.827957317</v>
       </c>
       <c r="E6" t="n">
-        <v>-127162.2081697403</v>
+        <v>-127834.1630719981</v>
       </c>
       <c r="F6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214092</v>
       </c>
       <c r="G6" t="n">
-        <v>600215.2058236668</v>
+        <v>599543.2509214091</v>
       </c>
       <c r="H6" t="n">
-        <v>600215.2058236665</v>
+        <v>599543.2509214088</v>
       </c>
       <c r="I6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214089</v>
       </c>
       <c r="J6" t="n">
-        <v>423791.986631074</v>
+        <v>423120.0317288165</v>
       </c>
       <c r="K6" t="n">
-        <v>600215.2058236666</v>
+        <v>599543.2509214092</v>
       </c>
       <c r="L6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214092</v>
       </c>
       <c r="M6" t="n">
-        <v>470572.8909847221</v>
+        <v>469900.9360824644</v>
       </c>
       <c r="N6" t="n">
-        <v>600215.2058236668</v>
+        <v>599543.2509214088</v>
       </c>
       <c r="O6" t="n">
-        <v>600215.2058236668</v>
+        <v>599543.2509214093</v>
       </c>
       <c r="P6" t="n">
-        <v>600215.2058236669</v>
+        <v>599543.2509214086</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.4217708629161</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>93.2480852237353</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>123.3106349274897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>217.3206500666357</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>167.819698156939</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>207.5877406465268</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>113.8100375081158</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>82.02264908530594</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70.21213748911364</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -34450,10 +34450,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35412,10 +35412,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35427,10 +35427,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.8144259657</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>738.9057171608822</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35661,16 +35661,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>264.7825436391894</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.7607146738324</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>742.1016362021754</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7361390721412</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>856.4357419408404</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>585.2273037320151</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>420.9083957314504</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37308,19 +37308,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>740.8875257003384</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M38" t="n">
-        <v>893.4048007708881</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37563,10 +37563,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37788,22 +37788,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>522.5068698476252</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38028,16 +38028,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>313.8101860077419</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38098,10 +38098,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505709.039422131</v>
+        <v>3509114.53054658</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>320.5360847970597</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>108.3077579842346</v>
       </c>
     </row>
     <row r="3">
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.264003285459337</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.264003285459112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>50.51247260347407</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>43.63642686176252</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>280.1033070984082</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>320.7975396524254</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.19510348422598</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.05179353791651</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>222.8810041512596</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>7.601081015447828</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>114.139342553679</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.26821836278967</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>206.2850895321558</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,19 +2532,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>104.0438938896184</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>269.0845199702608</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>61.60385878691238</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>147.0633545968146</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.9416910403794</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>164.9102792253208</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>156.3460220671599</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>228.0158519949659</v>
       </c>
       <c r="V43" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.095523708391</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.090798542223</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>538.1282816018113</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>538.1282816018113</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>538.1282816018113</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>531.1827808526078</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
         <v>498.8626623130036</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1231.905553626649</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>862.9430366862371</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>504.6773380794866</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>118.8890854812423</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2258.25973745419</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1927.196850110619</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1574.428194840505</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.915471247702</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.649772640952</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>747.8615200427075</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>336.8756152531</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5056,10 +5056,10 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3944.053400686433</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5144,16 +5144,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>654.7198286198654</v>
+        <v>727.3103861854969</v>
       </c>
       <c r="C13" t="n">
-        <v>654.7198286198654</v>
+        <v>558.37420325759</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E13" t="n">
         <v>506.8067350374723</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.061905225871</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.64473518891</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X13" t="n">
-        <v>875.5124077633956</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y13" t="n">
-        <v>654.7198286198654</v>
+        <v>908.9588510157366</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2628.734306600803</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3175.513123659585</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3678.485594538922</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4391.840681985868</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1948.66560649314</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1726.898991062666</v>
+        <v>1559.534859483322</v>
       </c>
       <c r="U16" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.431992608965</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.747504403078</v>
       </c>
       <c r="W16" t="n">
-        <v>893.6944659454626</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="X16" t="n">
-        <v>665.7049150474453</v>
+        <v>726.3303343661177</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.9123359039152</v>
+        <v>726.3303343661177</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>888.4135721382786</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1339.447785386687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>673.3827746590082</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>504.4465917311013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>504.4465917311013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>504.4465917311013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>357.5566442331909</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>673.3827746590082</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5946,16 +5946,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>955.5888650790198</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>727.5993141810025</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,13 +5995,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6101,10 +6101,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
         <v>1554.419908487875</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>637.470608753835</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1098774754799</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1098774754799</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1098774754799</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1098774754799</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>244.1098774754799</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>874.540472347267</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5509214492497</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7583423057196</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.3002584566048</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6709,43 +6709,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1789.767426483168</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1568.000811052694</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N35" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,10 +7122,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
         <v>1270.093287563029</v>
@@ -7153,67 +7153,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622687</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7426,37 +7426,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1312.571924081898</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1057.887435876012</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>768.470265839051</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7654,22 +7654,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>222.930250315456</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8230,7 +8230,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360585</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8704,13 +8704,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.98823883546996</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,16 +9178,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>246.454569480844</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>37.13651117804409</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>29.61882225792147</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>97.56367948029585</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.828651237777564</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>182.1679443159941</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>105.4096067224902</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>147.7575898962386</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>80.23790880443519</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>182.1679443159945</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>17.43847836633023</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>118.2281213950249</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.96245366221362</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.6429623117154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>24.85874610612106</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>129.865816138453</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>58.19598621064694</v>
       </c>
       <c r="V43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>22.51994930982134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965701</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.2163965707</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="G2" t="n">
         <v>714747.2163965706</v>
       </c>
       <c r="H2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="I2" t="n">
+        <v>714747.2163965704</v>
+      </c>
+      <c r="J2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="K2" t="n">
         <v>714747.2163965703</v>
-      </c>
-      <c r="J2" t="n">
-        <v>714747.2163965709</v>
-      </c>
-      <c r="K2" t="n">
-        <v>714747.2163965707</v>
       </c>
       <c r="L2" t="n">
         <v>714747.2163965707</v>
       </c>
       <c r="M2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="N2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="O2" t="n">
-        <v>714747.2163965708</v>
+        <v>714747.2163965707</v>
       </c>
       <c r="P2" t="n">
-        <v>714747.2163965701</v>
+        <v>714747.2163965703</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
@@ -26441,22 +26441,22 @@
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="M4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="M4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26493,22 +26493,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572272</v>
+        <v>-117238.0512572273</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573171</v>
+        <v>472729.8279573175</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.827957317</v>
+        <v>472729.8279573176</v>
       </c>
       <c r="E6" t="n">
-        <v>-127834.1630719981</v>
+        <v>-127229.4036599656</v>
       </c>
       <c r="F6" t="n">
-        <v>599543.2509214092</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="G6" t="n">
-        <v>599543.2509214091</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="H6" t="n">
-        <v>599543.2509214088</v>
+        <v>600148.0103334411</v>
       </c>
       <c r="I6" t="n">
-        <v>599543.2509214089</v>
+        <v>600148.0103334411</v>
       </c>
       <c r="J6" t="n">
-        <v>423120.0317288165</v>
+        <v>423724.7911408481</v>
       </c>
       <c r="K6" t="n">
-        <v>599543.2509214092</v>
+        <v>600148.010333441</v>
       </c>
       <c r="L6" t="n">
-        <v>599543.2509214092</v>
+        <v>600148.0103334413</v>
       </c>
       <c r="M6" t="n">
-        <v>469900.9360824644</v>
+        <v>470505.6954944961</v>
       </c>
       <c r="N6" t="n">
-        <v>599543.2509214088</v>
+        <v>600148.0103334407</v>
       </c>
       <c r="O6" t="n">
-        <v>599543.2509214093</v>
+        <v>600148.0103334413</v>
       </c>
       <c r="P6" t="n">
-        <v>599543.2509214086</v>
+        <v>600148.010333441</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>93.2480852237353</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>277.930180671819</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.2589950511316</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.3206500666357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>356.3635731382374</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>207.5877406465268</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6808629223868</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>28.44342906498764</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.327894852365</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33511,13 +33511,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>264.7825436391894</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>440.9775330409149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,16 +35898,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>754.5075703690632</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>589.4383465909556</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37077,13 +37077,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37159,13 +37159,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5399380881482</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L38" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
